--- a/documentation/BOM.xlsx
+++ b/documentation/BOM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Till\Dropbox\DIY\CoreBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tillm\Dropbox\Ultibox\ultibox\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -236,9 +236,6 @@
     <t>24V 5A powersupply</t>
   </si>
   <si>
-    <t>Fine milled aluminium plate 310x310x6mm</t>
-  </si>
-  <si>
     <t>NEMA 17 mount</t>
   </si>
   <si>
@@ -252,6 +249,9 @@
   </si>
   <si>
     <t>https://de.aliexpress.com/item/100pcs-M3-color-zinc-plated-square-nuts-block-square-quadrangle-quadrilateral-galvanized-square-nuts-hw55028/32666611009.html?spm=a2g0x.search0104.3.1.RrtPZM&amp;ws_ab_test=searchweb0_0,searchweb201602_3_10152_10065_10151_10068_10344_10345_10547_10342_10343_10340_10341_10548_10193_10194_10541_10304_10307_10060_10302_10155_10154_10056_10055_10539_10537_10536_10059_10534_10533_100031_10103_10102_5670013_10107_10142_10320_10321_10322_5660013_10084_10083_10177_10180_10312_10313_10314_10184_10319_10550_10073_10551_10552_10553_10554_10186_10557_5650013-10550,searchweb201603_1,ppcSwitch_5&amp;btsid=d98c7a77-6f40-4d59-8181-b12c8a6a0d67&amp;algo_expid=7fa12f10-d95a-4e25-870e-b8073f2ee5b7-0&amp;algo_pvid=7fa12f10-d95a-4e25-870e-b8073f2ee5b7</t>
+  </si>
+  <si>
+    <t>Fine milled aluminium plate 315x315x6mm</t>
   </si>
 </sst>
 </file>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -787,7 +787,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -800,7 +800,7 @@
         <v>6.89</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1252,7 +1252,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B45" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C45" s="6">
         <v>1</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="6">
         <v>2</v>
@@ -1288,7 +1288,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C47" s="6">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>0.87</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="49" spans="6:7" x14ac:dyDescent="0.35">
